--- a/wcsa4seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcsa4seleniumproject/data/ActiTimeTestData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
+    <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -31,13 +32,31 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Ad_min</t>
+  </si>
+  <si>
+    <t>Man_Ger</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>manager1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +68,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,15 +119,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -410,4 +442,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/wcsa4seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcsa4seleniumproject/data/ActiTimeTestData.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -50,12 +50,16 @@
   </si>
   <si>
     <t>manager1</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -419,7 +423,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -428,6 +432,9 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +461,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
